--- a/biology/Zoologie/Amazone_à_ailes_bleues/Amazone_à_ailes_bleues.xlsx
+++ b/biology/Zoologie/Amazone_à_ailes_bleues/Amazone_à_ailes_bleues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amazona gomezgarzai
 L'Amazone à ailes bleues (Amazona gomezgarzai) est une espèce d'amazones (famille des Psittacidae) endémique de la péninsule du Yucatán (Mexique).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Amazona gomezgarzai a été décrite en 2017 par deux ornithologues, Tony Silva (d) et Antonio Guzmán (d), et deux généticiens, Adam Urantowka (d) et Paweł Mackiewicz (d)[3].
-Le NCBI considère cet oiseau comme une sous-espèce d’Amazona albifrons, sous le taxon Amazona albifrons gomezgarzai[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Amazona gomezgarzai a été décrite en 2017 par deux ornithologues, Tony Silva (d) et Antonio Guzmán (d), et deux généticiens, Adam Urantowka (d) et Paweł Mackiewicz (d).
+Le NCBI considère cet oiseau comme une sous-espèce d’Amazona albifrons, sous le taxon Amazona albifrons gomezgarzai.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 27 cm de longueur. Il présente un plumage essentiellement vert avec le front rouge, plus étendu chez le mâle que chez la femelle.
-Génétiquement, il est très proche de l'Amazone à front blanc (Amazona albifrons), qui vit dans les mêmes région et habitat. La séparation des espèces, qui ne s'hybrident pas, est datée d'environ 120 000 ans[4].
+Génétiquement, il est très proche de l'Amazone à front blanc (Amazona albifrons), qui vit dans les mêmes région et habitat. La séparation des espèces, qui ne s'hybrident pas, est datée d'environ 120 000 ans.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit uniquement dans la péninsule du Yucatán.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son comportement est similaire à celui de l'Amazone à joues vertes (Amazona viridigenalis). Elle se nourrit de graines, de feuilles et de fruits (dont ceux du Faux-acacia, du Carao et de Acacia gaumeri).
 Elle se déplace en petits groupes de moins de douze individus.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, gomezgarzai, lui a été donnée en l'honneur de Miguel Angel Gómez Garza, un vétérinaire mexicain né à Monterrey (Nuevo León, Mexique) en 1960, et ce en remerciement de son intérêt pour l'écologie des perroquets du Mexique et pour son aide à la remise en liberté de spécimens capturés[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, gomezgarzai, lui a été donnée en l'honneur de Miguel Angel Gómez Garza, un vétérinaire mexicain né à Monterrey (Nuevo León, Mexique) en 1960, et ce en remerciement de son intérêt pour l'écologie des perroquets du Mexique et pour son aide à la remise en liberté de spécimens capturés.
 </t>
         </is>
       </c>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amazone_%C3%A0_ailes_bleues</t>
+          <t>Amazone_à_ailes_bleues</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Tony Silva, Antonio Guzmán, Adam Urantowka et Paweł Mackiewicz, « A new parrot taxon from the Yucatán Peninsula, Mexico-its position within genus Amazona based on morphology and molecular phylogeny », PeerJ, PeerJ Publishing (d), vol. 5,‎ 27 juin 2017, e3475 (ISSN 2167-8359, OCLC 793828439, PMID 28674651, PMCID 5490482, DOI 10.7717/PEERJ.3475, lire en ligne)</t>
         </is>
